--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="loginTest" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="addAddressTest" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>useremail</t>
   </si>
   <si>
+    <t>firstname</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
@@ -34,14 +38,206 @@
     <t>Address Book</t>
   </si>
   <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>primaryaddr</t>
+  </si>
+  <si>
+    <t>secondaryaddr</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>interests</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
     <t>Address Book - Sign In</t>
+  </si>
+  <si>
+    <t>Sttan</t>
+  </si>
+  <si>
+    <t>Street 1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>112334</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>03/02/1980</t>
+  </si>
+  <si>
+    <t>#FFFFF0</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>http://test.com</t>
+  </si>
+  <si>
+    <t>2334556</t>
+  </si>
+  <si>
+    <t>climbing</t>
+  </si>
+  <si>
+    <t>Some Note</t>
+  </si>
+  <si>
+    <t>Stive</t>
+  </si>
+  <si>
+    <t>Aur</t>
+  </si>
+  <si>
+    <t>Stre</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>06/02/1983</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>http://test1.com</t>
+  </si>
+  <si>
+    <t>45467358</t>
+  </si>
+  <si>
+    <t>Some Note 2</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ane</t>
+  </si>
+  <si>
+    <t>gsg</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>44667</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>06/01/1990</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>http://test3.com</t>
+  </si>
+  <si>
+    <t>4673453547</t>
+  </si>
+  <si>
+    <t>dancing</t>
+  </si>
+  <si>
+    <t>Some Note 3</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Street 4</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>06/02/1980</t>
+  </si>
+  <si>
+    <t>#FFFFF3</t>
+  </si>
+  <si>
+    <t>reading dancing</t>
+  </si>
+  <si>
+    <t>Some Note 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -52,6 +248,15 @@
       <sz val="8.0"/>
       <color rgb="FF222222"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -84,15 +289,42 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -111,30 +343,291 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M2:M5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(M2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="L2"/>
+    <hyperlink r:id="rId2" ref="L3"/>
+    <hyperlink r:id="rId3" ref="L4"/>
+    <hyperlink r:id="rId4" ref="L5"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>